--- a/documents/Results.xlsx
+++ b/documents/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xmadm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xmadm\Desktop\Github Repo\Connect4_AI\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4135A43-0ED6-44E9-8AAF-5B79968CC072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5988C8-6A24-4853-8C95-D2759ED4E4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="1836" windowWidth="19560" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -714,7 +714,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,10 +840,10 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>84.2</v>
+        <v>85.6</v>
       </c>
       <c r="I4">
-        <v>59.2</v>
+        <v>61.4</v>
       </c>
       <c r="J4">
         <v>35.4</v>
@@ -974,6 +974,30 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
     <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:C12">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1044,30 +1068,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:C12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
